--- a/biology/Botanique/Quercus_kerrii/Quercus_kerrii.xlsx
+++ b/biology/Botanique/Quercus_kerrii/Quercus_kerrii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus kerrii est une espèce de chênes du sous-genre Cyclobalanopsis. L'espèce est présente en Chine, en Thaïlande, au Laos et au Viêt Nam.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (4 janvier 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 janvier 2020) :
 variété Quercus kerrii var. pubescens Barnett</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, kerrii, lui a été donnée en l'honneur de Arthur Francis George Kerr (d) (1877-1942), botaniste irlandais qui a notamment étudié la flore de Thaïlande.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William Grant Craib, « List of Siamese Plants with Descriptions of New Species - continued », Bulletin of Miscellaneous Information Kew, Londres, Inconnu, vol. 1911,‎ 1911, p. 385-484 (ISSN 0366-4457, OCLC 7052979, lire en ligne)</t>
         </is>
